--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2024/53_Konya_2024.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2024/53_Konya_2024.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk 2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EDC30A8F-B0A8-49A0-9611-D6BE0C3FF45E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F6933C36-25A8-47D9-B18E-BE65682FE798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="659" xr2:uid="{35CBD58E-DDC0-4FC7-88ED-75C7371CDBFB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="659" xr2:uid="{AD7E9212-122F-4B89-8453-782EBDAEA9CA}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="135" r:id="rId1"/>
@@ -910,13 +910,13 @@
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{E6F9ECB9-5CE2-4803-BC0D-6717FC9A5189}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{EBEF6B8E-35CC-4203-89E8-E917744E96E9}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{B82604CE-24D3-4376-AF64-5AA8AB494F5D}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{F251BCEE-8918-44CC-AF3A-58F12ABFCE27}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{D140EAE3-C5F6-48A4-8208-9FEE66EA2CB8}"/>
-    <cellStyle name="Not 2" xfId="6" xr:uid="{CF3B69B8-ABA2-4A26-BA86-DFEA329C81FD}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{CBB64F96-0589-4B6C-9C6D-FB5080FB52F5}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{173D784A-B2B2-46B3-BB0D-83BBFADB3F40}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{36466377-E560-4FD1-B66F-413B8627853D}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{3CCFBFBA-2863-4E23-9BD6-723D4DCC4CF6}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{62730933-F2C9-458C-9AF8-E0BC28A80EE0}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{4BBE4267-2F18-4025-9058-B3F3618E109E}"/>
+    <cellStyle name="Not 2" xfId="6" xr:uid="{2ABA2DC3-7BE4-4771-857C-00118637A4F8}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{1E88E0F5-F1DA-47F1-83ED-4272D895633F}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1286,7 +1286,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA9857B9-1056-45E0-BB9D-B682C22E6FFB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00C69511-BB93-4414-A22D-B19335D828D5}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2591,7 +2591,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{928E6433-5558-444D-BB9F-51AD59A8994E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7C6D717-4566-47B3-A92E-EEF93FE53E41}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3898,7 +3898,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2AA780E-6892-47FA-9859-8F7BB3062A5F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4C71766-2476-4E62-AA8A-FF007DF8D58B}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5201,7 +5201,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DCF09DA-62D0-41E1-AE60-997C76848EC5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADC1FF2D-A8CA-48D0-8A0C-49E31329D34E}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -6498,7 +6498,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3E5B80D-8D5F-4E93-9326-6DD5E5074074}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36231A60-6625-4E85-B185-404BC4F63D00}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7803,7 +7803,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB93A64D-101D-486A-B841-6370D7687927}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CFA179B-90B6-4B04-9957-735C321FE957}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -9108,7 +9108,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D281AFD5-5358-446F-A973-FFE07C9B4D9B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{839BA8AB-ABBB-4140-AE94-5A3625009082}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -10413,7 +10413,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{048522DD-9BF2-45AC-BC0B-E0F8F4C5D5D7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FE0CB5B-750E-451D-8C86-E9CE087DC602}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11720,7 +11720,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4DA85BB-E346-4B62-BDEC-8C848D83A235}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C064C15-7238-4599-AAE3-5E5869A3725C}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -13025,7 +13025,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CCB1FC8-5628-403A-896B-F5E4FECE724F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{662B6218-B51A-46BF-B04C-2247ECA231D8}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14332,7 +14332,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{874BAF9F-D08D-4272-9E81-EE81458D82FE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C08423EE-05FB-4F3B-9B03-D64FDEA2281F}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -15637,7 +15637,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3D1F755-E736-4BD1-A9FF-72076706901B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B293033-1CF0-43BC-9D43-217330C6F9D5}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
